--- a/resources/app_data/custom_colormaps.xlsx
+++ b/resources/app_data/custom_colormaps.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhasterok/Documents/LaserMapExplorer/resources/app_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhasterok/Documents/GitHub/LaserMapExplorer/resources/app_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480FF4F7-7F1E-F541-B058-B6DD3176636A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AEF7CE-1365-8A48-8269-AF295005063D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30600" yWindow="9940" windowWidth="19400" windowHeight="17440" xr2:uid="{D6A79B19-0972-6E47-B8F8-44D0860CB5DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,28 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="173">
-  <si>
-    <t>Northern Parula</t>
-  </si>
-  <si>
-    <t>Grand Prisimatic Spring</t>
-  </si>
-  <si>
-    <t>Zebra Finch</t>
-  </si>
-  <si>
-    <t>Old Rusty Car</t>
-  </si>
-  <si>
-    <t>Io</t>
-  </si>
-  <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="217">
   <si>
     <t>#191D26</t>
   </si>
@@ -404,12 +383,6 @@
     <t>#BCCABD</t>
   </si>
   <si>
-    <t>Uluru</t>
-  </si>
-  <si>
-    <t>Eruption</t>
-  </si>
-  <si>
     <t>#030303</t>
   </si>
   <si>
@@ -452,9 +425,6 @@
     <t>#9B5B85</t>
   </si>
   <si>
-    <t>Glacier</t>
-  </si>
-  <si>
     <t>#082233</t>
   </si>
   <si>
@@ -476,12 +446,6 @@
     <t>#F4F3F1</t>
   </si>
   <si>
-    <t>Columbine</t>
-  </si>
-  <si>
-    <t>Malechite</t>
-  </si>
-  <si>
     <t>#16123F</t>
   </si>
   <si>
@@ -530,9 +494,6 @@
     <t>#91C6AA</t>
   </si>
   <si>
-    <t>Lava</t>
-  </si>
-  <si>
     <t>#131211</t>
   </si>
   <si>
@@ -555,6 +516,177 @@
   </si>
   <si>
     <t>#FBF4E5</t>
+  </si>
+  <si>
+    <t>bivroy</t>
+  </si>
+  <si>
+    <t>bivroy2</t>
+  </si>
+  <si>
+    <t>blackbody</t>
+  </si>
+  <si>
+    <t>klindman</t>
+  </si>
+  <si>
+    <t>ryb2</t>
+  </si>
+  <si>
+    <t>ryb</t>
+  </si>
+  <si>
+    <t>lava</t>
+  </si>
+  <si>
+    <t>malechite</t>
+  </si>
+  <si>
+    <t>columbine</t>
+  </si>
+  <si>
+    <t>glacier</t>
+  </si>
+  <si>
+    <t>eruption</t>
+  </si>
+  <si>
+    <t>uluru</t>
+  </si>
+  <si>
+    <t>iceland</t>
+  </si>
+  <si>
+    <t>aurora</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>old rusty car</t>
+  </si>
+  <si>
+    <t>zebra finch</t>
+  </si>
+  <si>
+    <t>northern parula</t>
+  </si>
+  <si>
+    <t>grand prisimatic spring</t>
+  </si>
+  <si>
+    <t>plasma</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>#240675</t>
+  </si>
+  <si>
+    <t>#057361</t>
+  </si>
+  <si>
+    <t>#411712</t>
+  </si>
+  <si>
+    <t>#620097</t>
+  </si>
+  <si>
+    <t>#CD0000</t>
+  </si>
+  <si>
+    <t>#FFC81E</t>
+  </si>
+  <si>
+    <t>#0000CD</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>#CD5C5C</t>
+  </si>
+  <si>
+    <t>#F0E68C</t>
+  </si>
+  <si>
+    <t>#6496F0</t>
+  </si>
+  <si>
+    <t>#073E96</t>
+  </si>
+  <si>
+    <t>#089F15</t>
+  </si>
+  <si>
+    <t>#70C409</t>
+  </si>
+  <si>
+    <t>#FAD092</t>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+  </si>
+  <si>
+    <t>#801F1B</t>
+  </si>
+  <si>
+    <t>#BC3320</t>
+  </si>
+  <si>
+    <t>#E0650A</t>
+  </si>
+  <si>
+    <t>#E8A11A</t>
+  </si>
+  <si>
+    <t>#E7DA30</t>
+  </si>
+  <si>
+    <t>#00113A</t>
+  </si>
+  <si>
+    <t>#0ABDF8</t>
+  </si>
+  <si>
+    <t>#572D45</t>
+  </si>
+  <si>
+    <t>#C2181E</t>
+  </si>
+  <si>
+    <t>#EF2C19</t>
+  </si>
+  <si>
+    <t>#FFFF0A</t>
+  </si>
+  <si>
+    <t>#001B30</t>
+  </si>
+  <si>
+    <t>#0D0887</t>
+  </si>
+  <si>
+    <t>#5402A3</t>
+  </si>
+  <si>
+    <t>#8B0AA5</t>
+  </si>
+  <si>
+    <t>#B93289</t>
+  </si>
+  <si>
+    <t>#DB5C68</t>
+  </si>
+  <si>
+    <t>#F48849</t>
+  </si>
+  <si>
+    <t>#FEBC2B</t>
+  </si>
+  <si>
+    <t>#F0F921</t>
   </si>
 </sst>
 </file>
@@ -926,560 +1058,766 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02F9D18-E15D-7543-BDDB-CEAF3D6E755C}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="K3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
+      <c r="L3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="M3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" t="s">
+      <c r="N3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
+      <c r="O3" t="s">
         <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
         <v>50</v>
       </c>
-      <c r="D4" t="s">
+      <c r="K4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" t="s">
+      <c r="L4" t="s">
         <v>52</v>
       </c>
-      <c r="F4" t="s">
+      <c r="M4" t="s">
         <v>53</v>
       </c>
-      <c r="G4" t="s">
+      <c r="N4" t="s">
         <v>54</v>
       </c>
-      <c r="H4" t="s">
+      <c r="O4" t="s">
         <v>55</v>
-      </c>
-      <c r="I4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" t="s">
+      <c r="J5" t="s">
         <v>64</v>
       </c>
-      <c r="D5" t="s">
+      <c r="K5" t="s">
         <v>65</v>
       </c>
-      <c r="E5" t="s">
+      <c r="L5" t="s">
         <v>66</v>
       </c>
-      <c r="F5" t="s">
+      <c r="M5" t="s">
         <v>67</v>
       </c>
-      <c r="G5" t="s">
+      <c r="N5" t="s">
         <v>68</v>
       </c>
-      <c r="H5" t="s">
+      <c r="O5" t="s">
         <v>69</v>
       </c>
-      <c r="I5" t="s">
+      <c r="P5" t="s">
         <v>70</v>
-      </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" t="s">
+      <c r="J6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="s">
+      <c r="K6" t="s">
         <v>80</v>
       </c>
-      <c r="E6" t="s">
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="F6" t="s">
+      <c r="M6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
+      <c r="N6" t="s">
         <v>83</v>
       </c>
-      <c r="H6" t="s">
+      <c r="O6" t="s">
         <v>84</v>
       </c>
-      <c r="I6" t="s">
+      <c r="P6" t="s">
         <v>85</v>
-      </c>
-      <c r="J6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N6" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" t="s">
         <v>93</v>
       </c>
-      <c r="C7" t="s">
+      <c r="J7" t="s">
         <v>94</v>
       </c>
-      <c r="D7" t="s">
+      <c r="K7" t="s">
         <v>95</v>
       </c>
-      <c r="E7" t="s">
+      <c r="L7" t="s">
         <v>96</v>
       </c>
-      <c r="F7" t="s">
+      <c r="M7" t="s">
         <v>97</v>
       </c>
-      <c r="G7" t="s">
+      <c r="N7" t="s">
         <v>98</v>
       </c>
-      <c r="H7" t="s">
+      <c r="O7" t="s">
         <v>99</v>
-      </c>
-      <c r="I7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M7" t="s">
-        <v>104</v>
-      </c>
-      <c r="N7" t="s">
-        <v>105</v>
-      </c>
-      <c r="O7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" t="s">
         <v>107</v>
       </c>
-      <c r="C8" t="s">
+      <c r="J8" t="s">
         <v>108</v>
       </c>
-      <c r="D8" t="s">
+      <c r="K8" t="s">
         <v>109</v>
       </c>
-      <c r="E8" t="s">
+      <c r="L8" t="s">
         <v>110</v>
       </c>
-      <c r="F8" t="s">
+      <c r="M8" t="s">
         <v>111</v>
       </c>
-      <c r="G8" t="s">
+      <c r="N8" t="s">
         <v>112</v>
       </c>
-      <c r="H8" t="s">
+      <c r="O8" t="s">
         <v>113</v>
       </c>
-      <c r="I8" t="s">
+      <c r="P8" t="s">
         <v>114</v>
-      </c>
-      <c r="J8" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" t="s">
-        <v>117</v>
-      </c>
-      <c r="M8" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" t="s">
-        <v>119</v>
-      </c>
-      <c r="O8" t="s">
-        <v>120</v>
-      </c>
-      <c r="P8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" t="s">
         <v>123</v>
       </c>
-      <c r="B9" t="s">
+      <c r="K9" t="s">
         <v>124</v>
       </c>
-      <c r="C9" t="s">
+      <c r="L9" t="s">
         <v>125</v>
       </c>
-      <c r="D9" t="s">
+      <c r="M9" t="s">
         <v>126</v>
       </c>
-      <c r="E9" t="s">
+      <c r="N9" t="s">
         <v>127</v>
       </c>
-      <c r="F9" t="s">
+      <c r="O9" t="s">
         <v>128</v>
-      </c>
-      <c r="G9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" t="s">
-        <v>132</v>
-      </c>
-      <c r="K9" t="s">
-        <v>133</v>
-      </c>
-      <c r="L9" t="s">
-        <v>134</v>
-      </c>
-      <c r="M9" t="s">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s">
-        <v>136</v>
-      </c>
-      <c r="O9" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="I10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H11" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="I11" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
         <v>147</v>
       </c>
-      <c r="B12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" t="s">
-        <v>159</v>
-      </c>
       <c r="F12" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="I12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>164</v>
       </c>
-      <c r="B13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" t="s">
-        <v>170</v>
-      </c>
-      <c r="H13" t="s">
-        <v>171</v>
-      </c>
-      <c r="I13" t="s">
-        <v>172</v>
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" t="s">
+        <v>188</v>
+      </c>
+      <c r="I15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" t="s">
+        <v>194</v>
+      </c>
+      <c r="H16" t="s">
+        <v>195</v>
+      </c>
+      <c r="I16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H17" t="s">
+        <v>201</v>
+      </c>
+      <c r="I17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G18" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" t="s">
+        <v>188</v>
+      </c>
+      <c r="I19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" t="s">
+        <v>214</v>
+      </c>
+      <c r="H20" t="s">
+        <v>215</v>
+      </c>
+      <c r="I20" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/resources/app_data/custom_colormaps.xlsx
+++ b/resources/app_data/custom_colormaps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhasterok/Documents/GitHub/LaserMapExplorer/resources/app_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derrickhasterok/GitHub/LaserMapExplorer/resources/app_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AEF7CE-1365-8A48-8269-AF295005063D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4081E4FA-CFD8-F14D-933C-507857952FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="9940" windowWidth="19400" windowHeight="17440" xr2:uid="{D6A79B19-0972-6E47-B8F8-44D0860CB5DE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34860" windowHeight="21900" xr2:uid="{D6A79B19-0972-6E47-B8F8-44D0860CB5DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="297">
   <si>
     <t>#191D26</t>
   </si>
@@ -209,9 +209,6 @@
     <t>#281319</t>
   </si>
   <si>
-    <t>#1C0B0C</t>
-  </si>
-  <si>
     <t>#4D1C12</t>
   </si>
   <si>
@@ -281,9 +278,6 @@
     <t>#84CA99</t>
   </si>
   <si>
-    <t>#A9D48D</t>
-  </si>
-  <si>
     <t>#65BC4A</t>
   </si>
   <si>
@@ -473,9 +467,6 @@
     <t>#060609</t>
   </si>
   <si>
-    <t>#0A2523</t>
-  </si>
-  <si>
     <t>#053027</t>
   </si>
   <si>
@@ -687,6 +678,255 @@
   </si>
   <si>
     <t>#F0F921</t>
+  </si>
+  <si>
+    <t>#D92E27</t>
+  </si>
+  <si>
+    <t>#96CC6F</t>
+  </si>
+  <si>
+    <t>#AAAD9C</t>
+  </si>
+  <si>
+    <t>lake eyre</t>
+  </si>
+  <si>
+    <t>#896c5e</t>
+  </si>
+  <si>
+    <t>#6e7844</t>
+  </si>
+  <si>
+    <t>#a29d4e</t>
+  </si>
+  <si>
+    <t>#da8427</t>
+  </si>
+  <si>
+    <t>#cd953b</t>
+  </si>
+  <si>
+    <t>#b44e26</t>
+  </si>
+  <si>
+    <t>#a13835</t>
+  </si>
+  <si>
+    <t>#d3899a</t>
+  </si>
+  <si>
+    <t>#daa5a2</t>
+  </si>
+  <si>
+    <t>sunspot</t>
+  </si>
+  <si>
+    <t>#1a0f10</t>
+  </si>
+  <si>
+    <t>#812f19</t>
+  </si>
+  <si>
+    <t>#ab4825</t>
+  </si>
+  <si>
+    <t>#d26b28</t>
+  </si>
+  <si>
+    <t>#dc7c27</t>
+  </si>
+  <si>
+    <t>#f1ae4b</t>
+  </si>
+  <si>
+    <t>#fee28a</t>
+  </si>
+  <si>
+    <t>#fff9ce</t>
+  </si>
+  <si>
+    <t>wheatfield</t>
+  </si>
+  <si>
+    <t>#652f12</t>
+  </si>
+  <si>
+    <t>#953a1f</t>
+  </si>
+  <si>
+    <t>#ce6728</t>
+  </si>
+  <si>
+    <t>#e49b33</t>
+  </si>
+  <si>
+    <t>#fec553</t>
+  </si>
+  <si>
+    <t>#f0d047</t>
+  </si>
+  <si>
+    <t>#f9dea9</t>
+  </si>
+  <si>
+    <t>#fff6d7</t>
+  </si>
+  <si>
+    <t>#efeee9</t>
+  </si>
+  <si>
+    <t>#d8e8f2</t>
+  </si>
+  <si>
+    <t>#b6d6e9</t>
+  </si>
+  <si>
+    <t>#96cce5</t>
+  </si>
+  <si>
+    <t>#76b0d0</t>
+  </si>
+  <si>
+    <t>red chilli</t>
+  </si>
+  <si>
+    <t>#140a0a</t>
+  </si>
+  <si>
+    <t>#721011</t>
+  </si>
+  <si>
+    <t>#8c181b</t>
+  </si>
+  <si>
+    <t>#c32026</t>
+  </si>
+  <si>
+    <t>#ef556b</t>
+  </si>
+  <si>
+    <t>#f27997</t>
+  </si>
+  <si>
+    <t>#f8bfd8</t>
+  </si>
+  <si>
+    <t>#eddfe7</t>
+  </si>
+  <si>
+    <t>citrus</t>
+  </si>
+  <si>
+    <t>#3b1122</t>
+  </si>
+  <si>
+    <t>#620a1a</t>
+  </si>
+  <si>
+    <t>#eb4c70</t>
+  </si>
+  <si>
+    <t>#f57f20</t>
+  </si>
+  <si>
+    <t>#f89a1c</t>
+  </si>
+  <si>
+    <t>#fecf0c</t>
+  </si>
+  <si>
+    <t>#fced0e</t>
+  </si>
+  <si>
+    <t>#9cc447</t>
+  </si>
+  <si>
+    <t>#68bd47</t>
+  </si>
+  <si>
+    <t>#3d793a</t>
+  </si>
+  <si>
+    <t>golden wattle</t>
+  </si>
+  <si>
+    <t>#263522</t>
+  </si>
+  <si>
+    <t>#59725c</t>
+  </si>
+  <si>
+    <t>#819491</t>
+  </si>
+  <si>
+    <t>#91aaa4</t>
+  </si>
+  <si>
+    <t>#ba92ac</t>
+  </si>
+  <si>
+    <t>#af6834</t>
+  </si>
+  <si>
+    <t>#b18e2f</t>
+  </si>
+  <si>
+    <t>#dfa826</t>
+  </si>
+  <si>
+    <t>#e6c220</t>
+  </si>
+  <si>
+    <t>#feeb2c</t>
+  </si>
+  <si>
+    <t>#C22E27</t>
+  </si>
+  <si>
+    <t>watermelon tourmaline</t>
+  </si>
+  <si>
+    <t>#152313</t>
+  </si>
+  <si>
+    <t>#466c40</t>
+  </si>
+  <si>
+    <t>#79bb79</t>
+  </si>
+  <si>
+    <t>#c5e1af</t>
+  </si>
+  <si>
+    <t>#f9f7fb</t>
+  </si>
+  <si>
+    <t>#e59bc4</t>
+  </si>
+  <si>
+    <t>#e763a5</t>
+  </si>
+  <si>
+    <t>#a61d4e</t>
+  </si>
+  <si>
+    <t>#43111b</t>
+  </si>
+  <si>
+    <t>#6097be</t>
+  </si>
+  <si>
+    <t>#3d83af</t>
+  </si>
+  <si>
+    <t>#156499</t>
+  </si>
+  <si>
+    <t>#DBDBD9</t>
+  </si>
+  <si>
+    <t>#EFEFFF</t>
   </si>
 </sst>
 </file>
@@ -1058,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02F9D18-E15D-7543-BDDB-CEAF3D6E755C}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,9 +1309,9 @@
     <col min="1" max="1" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1116,9 +1356,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1163,9 +1403,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -1210,9 +1450,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
@@ -1257,567 +1497,821 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="P5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="O6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
         <v>84</v>
       </c>
-      <c r="P6" t="s">
+      <c r="C7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>86</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>87</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>88</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>89</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>90</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>91</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>92</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>93</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>94</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>95</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>96</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>97</v>
       </c>
-      <c r="N7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="M8" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="N8" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" t="s">
+        <v>241</v>
+      </c>
+      <c r="G9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H9" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" t="s">
+        <v>244</v>
+      </c>
+      <c r="J9" t="s">
+        <v>245</v>
+      </c>
+      <c r="K9" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" t="s">
+        <v>247</v>
+      </c>
+      <c r="M9" t="s">
+        <v>248</v>
+      </c>
+      <c r="N9" t="s">
+        <v>249</v>
+      </c>
+      <c r="O9" t="s">
+        <v>292</v>
+      </c>
+      <c r="P9" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H10" t="s">
+        <v>289</v>
+      </c>
+      <c r="I10" t="s">
+        <v>290</v>
+      </c>
+      <c r="J10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>170</v>
       </c>
-      <c r="B9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" t="s">
-        <v>123</v>
-      </c>
-      <c r="K9" t="s">
-        <v>124</v>
-      </c>
-      <c r="L9" t="s">
-        <v>125</v>
-      </c>
-      <c r="M9" t="s">
-        <v>126</v>
-      </c>
-      <c r="N9" t="s">
-        <v>127</v>
-      </c>
-      <c r="O9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" t="s">
+        <v>215</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" t="s">
         <v>134</v>
       </c>
-      <c r="I10" t="s">
+      <c r="C12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D12" t="s">
         <v>136</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E12" t="s">
         <v>137</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" t="s">
         <v>138</v>
       </c>
-      <c r="E11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" t="s">
         <v>141</v>
       </c>
-      <c r="G11" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" t="s">
-        <v>142</v>
-      </c>
-      <c r="I11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G12" t="s">
-        <v>149</v>
-      </c>
-      <c r="H12" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="I13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="F14" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="H14" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="I14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="J14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="F15" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="G15" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="H15" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="I15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" t="s">
+        <v>154</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17" t="s">
+        <v>256</v>
+      </c>
+      <c r="H17" t="s">
+        <v>257</v>
+      </c>
+      <c r="I17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" t="s">
         <v>182</v>
       </c>
-      <c r="F16" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" t="s">
-        <v>194</v>
-      </c>
-      <c r="H16" t="s">
-        <v>195</v>
-      </c>
-      <c r="I16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>183</v>
       </c>
-      <c r="D17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" t="s">
-        <v>200</v>
-      </c>
-      <c r="H17" t="s">
-        <v>201</v>
-      </c>
-      <c r="I17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" t="s">
-        <v>203</v>
-      </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E18" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="F18" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="H18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>161</v>
       </c>
       <c r="B19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>191</v>
+      </c>
+      <c r="H20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" t="s">
+        <v>197</v>
+      </c>
+      <c r="H21" t="s">
+        <v>198</v>
+      </c>
+      <c r="I21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
+        <v>204</v>
+      </c>
+      <c r="H22" t="s">
+        <v>185</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" t="s">
+        <v>185</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" t="s">
         <v>208</v>
       </c>
-      <c r="C19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" t="s">
-        <v>184</v>
-      </c>
-      <c r="E19" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H19" t="s">
-        <v>188</v>
-      </c>
-      <c r="I19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="E24" t="s">
         <v>209</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F24" t="s">
         <v>210</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G24" t="s">
         <v>211</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H24" t="s">
         <v>212</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I24" t="s">
         <v>213</v>
       </c>
-      <c r="G20" t="s">
-        <v>214</v>
-      </c>
-      <c r="H20" t="s">
-        <v>215</v>
-      </c>
-      <c r="I20" t="s">
-        <v>216</v>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" t="s">
+        <v>221</v>
+      </c>
+      <c r="F25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" t="s">
+        <v>223</v>
+      </c>
+      <c r="H25" t="s">
+        <v>224</v>
+      </c>
+      <c r="I25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" t="s">
+        <v>262</v>
+      </c>
+      <c r="E26" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26" t="s">
+        <v>264</v>
+      </c>
+      <c r="G26" t="s">
+        <v>265</v>
+      </c>
+      <c r="H26" t="s">
+        <v>266</v>
+      </c>
+      <c r="I26" t="s">
+        <v>267</v>
+      </c>
+      <c r="J26" t="s">
+        <v>268</v>
+      </c>
+      <c r="K26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>270</v>
+      </c>
+      <c r="B27" t="s">
+        <v>271</v>
+      </c>
+      <c r="C27" t="s">
+        <v>272</v>
+      </c>
+      <c r="D27" t="s">
+        <v>273</v>
+      </c>
+      <c r="E27" t="s">
+        <v>274</v>
+      </c>
+      <c r="F27" t="s">
+        <v>275</v>
+      </c>
+      <c r="G27" t="s">
+        <v>276</v>
+      </c>
+      <c r="H27" t="s">
+        <v>277</v>
+      </c>
+      <c r="I27" t="s">
+        <v>278</v>
+      </c>
+      <c r="J27" t="s">
+        <v>279</v>
+      </c>
+      <c r="K27" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/resources/app_data/custom_colormaps.xlsx
+++ b/resources/app_data/custom_colormaps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derrickhasterok/GitHub/LaserMapExplorer/resources/app_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4081E4FA-CFD8-F14D-933C-507857952FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9802B01C-0289-5E42-A359-A43D33EB6F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34860" windowHeight="21900" xr2:uid="{D6A79B19-0972-6E47-B8F8-44D0860CB5DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="299">
   <si>
     <t>#191D26</t>
   </si>
@@ -308,9 +308,6 @@
     <t>#677274</t>
   </si>
   <si>
-    <t>#635221</t>
-  </si>
-  <si>
     <t>#5F463F</t>
   </si>
   <si>
@@ -347,78 +344,12 @@
     <t>#8D9398</t>
   </si>
   <si>
-    <t>#885F54</t>
-  </si>
-  <si>
-    <t>#844A4C</t>
-  </si>
-  <si>
-    <t>#853E43</t>
-  </si>
-  <si>
     <t>#650723</t>
   </si>
   <si>
-    <t>#9F4C33</t>
-  </si>
-  <si>
-    <t>#F36D4C</t>
-  </si>
-  <si>
-    <t>#B67AAC</t>
-  </si>
-  <si>
-    <t>#867AAE</t>
-  </si>
-  <si>
-    <t>#D9A69A</t>
-  </si>
-  <si>
-    <t>#BCCABD</t>
-  </si>
-  <si>
     <t>#030303</t>
   </si>
   <si>
-    <t>#1B1010</t>
-  </si>
-  <si>
-    <t>#342126</t>
-  </si>
-  <si>
-    <t>#7C4550</t>
-  </si>
-  <si>
-    <t>#DB5F45</t>
-  </si>
-  <si>
-    <t>#D55330</t>
-  </si>
-  <si>
-    <t>#EE3624</t>
-  </si>
-  <si>
-    <t>#F68938</t>
-  </si>
-  <si>
-    <t>#F4CF6F</t>
-  </si>
-  <si>
-    <t>#FDF5A5</t>
-  </si>
-  <si>
-    <t>#F8FCFF</t>
-  </si>
-  <si>
-    <t>#BCAAD2</t>
-  </si>
-  <si>
-    <t>#A47AB6</t>
-  </si>
-  <si>
-    <t>#9B5B85</t>
-  </si>
-  <si>
     <t>#082233</t>
   </si>
   <si>
@@ -927,6 +858,81 @@
   </si>
   <si>
     <t>#EFEFFF</t>
+  </si>
+  <si>
+    <t>#451516</t>
+  </si>
+  <si>
+    <t>#a43034</t>
+  </si>
+  <si>
+    <t>#ee3624</t>
+  </si>
+  <si>
+    <t>#ea744c</t>
+  </si>
+  <si>
+    <t>#f79140</t>
+  </si>
+  <si>
+    <t>#f4cf6f</t>
+  </si>
+  <si>
+    <t>#fdf5a5</t>
+  </si>
+  <si>
+    <t>#f8fcff</t>
+  </si>
+  <si>
+    <t>#e6dbec</t>
+  </si>
+  <si>
+    <t>#bcaad2</t>
+  </si>
+  <si>
+    <t>#a47ab6</t>
+  </si>
+  <si>
+    <t>#9b5b85</t>
+  </si>
+  <si>
+    <t>#653b50</t>
+  </si>
+  <si>
+    <t>#b7492e</t>
+  </si>
+  <si>
+    <t>#8c4a68</t>
+  </si>
+  <si>
+    <t>#e34d38</t>
+  </si>
+  <si>
+    <t>#f36d4c</t>
+  </si>
+  <si>
+    <t>#f68c6b</t>
+  </si>
+  <si>
+    <t>#b67aac</t>
+  </si>
+  <si>
+    <t>#867aae</t>
+  </si>
+  <si>
+    <t>#c3a6ab</t>
+  </si>
+  <si>
+    <t>#f4c492</t>
+  </si>
+  <si>
+    <t>#bacdc9</t>
+  </si>
+  <si>
+    <t>#a5bedo</t>
+  </si>
+  <si>
+    <t>#d5dbe5</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1307,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1311,7 +1317,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1358,7 +1364,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1405,7 +1411,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -1452,7 +1458,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
@@ -1464,186 +1470,192 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>46</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>48</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>49</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>50</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>51</v>
-      </c>
-      <c r="L4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
         <v>98</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>99</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>100</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>101</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H5" t="s">
         <v>102</v>
       </c>
-      <c r="G5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" t="s">
-        <v>104</v>
-      </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>287</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>289</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
+        <v>290</v>
       </c>
       <c r="L5" t="s">
-        <v>108</v>
+        <v>291</v>
       </c>
       <c r="M5" t="s">
-        <v>109</v>
+        <v>292</v>
       </c>
       <c r="N5" t="s">
-        <v>110</v>
+        <v>293</v>
       </c>
       <c r="O5" t="s">
-        <v>111</v>
+        <v>294</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>295</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>274</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>275</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>276</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>277</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>278</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="I6" t="s">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="J6" t="s">
-        <v>121</v>
+        <v>281</v>
       </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>282</v>
       </c>
       <c r="L6" t="s">
-        <v>123</v>
+        <v>283</v>
       </c>
       <c r="M6" t="s">
-        <v>124</v>
+        <v>284</v>
       </c>
       <c r="N6" t="s">
-        <v>125</v>
+        <v>285</v>
       </c>
       <c r="O6" t="s">
-        <v>126</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
         <v>84</v>
       </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" t="s">
-        <v>89</v>
-      </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>297</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
         <v>94</v>
       </c>
       <c r="M7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="P7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -1688,97 +1700,97 @@
         <v>69</v>
       </c>
       <c r="P8" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="F9" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="G9" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="H9" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="I9" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="J9" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="K9" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="L9" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="M9" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="N9" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="O9" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="P9" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="Q9" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="E10" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="F10" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="G10" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="H10" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="I10" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="J10" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -1811,7 +1823,7 @@
         <v>79</v>
       </c>
       <c r="L11" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -1828,490 +1840,490 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="H14" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="I14" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="J14" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="E15" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="F15" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="G15" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="H15" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="I15" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="H16" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="E17" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="F17" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="G17" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="H17" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="I17" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" t="s">
         <v>162</v>
       </c>
-      <c r="B18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E18" t="s">
-        <v>185</v>
-      </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="H18" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="E19" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="H19" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="E20" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="H20" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="H21" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="D22" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="E22" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="H22" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" t="s">
         <v>158</v>
       </c>
-      <c r="B23" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
         <v>181</v>
       </c>
-      <c r="E23" t="s">
-        <v>202</v>
-      </c>
-      <c r="F23" t="s">
-        <v>203</v>
-      </c>
-      <c r="G23" t="s">
-        <v>204</v>
-      </c>
       <c r="H23" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="E24" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="G24" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="H24" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="I24" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="E25" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="G25" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="H25" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="I25" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="J25" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="C26" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="D26" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="E26" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="F26" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G26" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="H26" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="I26" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="J26" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="C27" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="D27" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="E27" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="F27" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="H27" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="I27" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="J27" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="K27" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/resources/app_data/custom_colormaps.xlsx
+++ b/resources/app_data/custom_colormaps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derrickhasterok/GitHub/LaserMapExplorer/resources/app_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9802B01C-0289-5E42-A359-A43D33EB6F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5260F3A7-9FE8-5841-82F5-D52ED235BC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34860" windowHeight="21900" xr2:uid="{D6A79B19-0972-6E47-B8F8-44D0860CB5DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="371">
   <si>
     <t>#191D26</t>
   </si>
@@ -929,10 +929,226 @@
     <t>#bacdc9</t>
   </si>
   <si>
-    <t>#a5bedo</t>
-  </si>
-  <si>
     <t>#d5dbe5</t>
+  </si>
+  <si>
+    <t>#a5bed0</t>
+  </si>
+  <si>
+    <t>plum</t>
+  </si>
+  <si>
+    <t>#231f20</t>
+  </si>
+  <si>
+    <t>#560e36</t>
+  </si>
+  <si>
+    <t>#831c56</t>
+  </si>
+  <si>
+    <t>#c32745</t>
+  </si>
+  <si>
+    <t>#ef4c75</t>
+  </si>
+  <si>
+    <t>#d96eab</t>
+  </si>
+  <si>
+    <t>#b18ec2</t>
+  </si>
+  <si>
+    <t>#b5b3d9</t>
+  </si>
+  <si>
+    <t>#d0c3e0</t>
+  </si>
+  <si>
+    <t>lemon-lime</t>
+  </si>
+  <si>
+    <t>#3b3b17</t>
+  </si>
+  <si>
+    <t>#2c5f2f</t>
+  </si>
+  <si>
+    <t>#358b42</t>
+  </si>
+  <si>
+    <t>#6abf64</t>
+  </si>
+  <si>
+    <t>#9ccb5d</t>
+  </si>
+  <si>
+    <t>#bddcaa</t>
+  </si>
+  <si>
+    <t>#d4ebd7</t>
+  </si>
+  <si>
+    <t>#dfe9e8</t>
+  </si>
+  <si>
+    <t>#f6f2d9</t>
+  </si>
+  <si>
+    <t>#faecba</t>
+  </si>
+  <si>
+    <t>#feec86</t>
+  </si>
+  <si>
+    <t>#fae500</t>
+  </si>
+  <si>
+    <t>#f9d20a</t>
+  </si>
+  <si>
+    <t>#daa128</t>
+  </si>
+  <si>
+    <t>#c2862b</t>
+  </si>
+  <si>
+    <t>#8a5422</t>
+  </si>
+  <si>
+    <t>atoll</t>
+  </si>
+  <si>
+    <t>#0a1627</t>
+  </si>
+  <si>
+    <t>#1b2a56</t>
+  </si>
+  <si>
+    <t>#1c4480</t>
+  </si>
+  <si>
+    <t>#055d99</t>
+  </si>
+  <si>
+    <t>#0984b3</t>
+  </si>
+  <si>
+    <t>#00b5bf</t>
+  </si>
+  <si>
+    <t>#5cc5c0</t>
+  </si>
+  <si>
+    <t>#9ec2a8</t>
+  </si>
+  <si>
+    <t>#d3c0c4</t>
+  </si>
+  <si>
+    <t>#e6d9d2</t>
+  </si>
+  <si>
+    <t>#f6e6e8</t>
+  </si>
+  <si>
+    <t>autumn in vermont</t>
+  </si>
+  <si>
+    <t>#581609</t>
+  </si>
+  <si>
+    <t>#811517</t>
+  </si>
+  <si>
+    <t>#b31f24</t>
+  </si>
+  <si>
+    <t>#cd2b27</t>
+  </si>
+  <si>
+    <t>#ee6323</t>
+  </si>
+  <si>
+    <t>#f5831f</t>
+  </si>
+  <si>
+    <t>#ffd10a</t>
+  </si>
+  <si>
+    <t>#fde54a</t>
+  </si>
+  <si>
+    <t>#f1dbaa</t>
+  </si>
+  <si>
+    <t>#3b150b</t>
+  </si>
+  <si>
+    <t>#6e8036</t>
+  </si>
+  <si>
+    <t>#305528</t>
+  </si>
+  <si>
+    <t>#1a1b1f</t>
+  </si>
+  <si>
+    <t>#60626f</t>
+  </si>
+  <si>
+    <t>#748eb1</t>
+  </si>
+  <si>
+    <t>#e5e4e0</t>
+  </si>
+  <si>
+    <t>#f0c369</t>
+  </si>
+  <si>
+    <t>#cf745c</t>
+  </si>
+  <si>
+    <t>#84271a</t>
+  </si>
+  <si>
+    <t>silicates</t>
+  </si>
+  <si>
+    <t>thin section</t>
+  </si>
+  <si>
+    <t>#8fcc93</t>
+  </si>
+  <si>
+    <t>#4f7ec0</t>
+  </si>
+  <si>
+    <t>#ffd068</t>
+  </si>
+  <si>
+    <t>#f5a15c</t>
+  </si>
+  <si>
+    <t>#f26948</t>
+  </si>
+  <si>
+    <t>#7b607f</t>
+  </si>
+  <si>
+    <t>#c9d850</t>
+  </si>
+  <si>
+    <t>#ffd9a5</t>
+  </si>
+  <si>
+    <t>#99d9e5</t>
+  </si>
+  <si>
+    <t>#ef424a</t>
+  </si>
+  <si>
+    <t>#007551</t>
   </si>
 </sst>
 </file>
@@ -1304,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02F9D18-E15D-7543-BDDB-CEAF3D6E755C}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1626,10 +1842,10 @@
         <v>84</v>
       </c>
       <c r="H7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I7" t="s">
         <v>297</v>
-      </c>
-      <c r="I7" t="s">
-        <v>298</v>
       </c>
       <c r="J7" t="s">
         <v>96</v>
@@ -1992,7 +2208,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>227</v>
       </c>
@@ -2021,7 +2237,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -2050,7 +2266,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>138</v>
       </c>
@@ -2079,7 +2295,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -2108,7 +2324,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -2137,7 +2353,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -2166,7 +2382,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -2195,7 +2411,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>153</v>
       </c>
@@ -2224,7 +2440,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -2256,7 +2472,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>236</v>
       </c>
@@ -2291,7 +2507,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>247</v>
       </c>
@@ -2324,6 +2540,240 @@
       </c>
       <c r="K27" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" t="s">
+        <v>304</v>
+      </c>
+      <c r="G28" t="s">
+        <v>305</v>
+      </c>
+      <c r="H28" t="s">
+        <v>306</v>
+      </c>
+      <c r="I28" t="s">
+        <v>307</v>
+      </c>
+      <c r="J28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>309</v>
+      </c>
+      <c r="B29" t="s">
+        <v>310</v>
+      </c>
+      <c r="C29" t="s">
+        <v>311</v>
+      </c>
+      <c r="D29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E29" t="s">
+        <v>313</v>
+      </c>
+      <c r="F29" t="s">
+        <v>314</v>
+      </c>
+      <c r="G29" t="s">
+        <v>315</v>
+      </c>
+      <c r="H29" t="s">
+        <v>316</v>
+      </c>
+      <c r="I29" t="s">
+        <v>317</v>
+      </c>
+      <c r="J29" t="s">
+        <v>318</v>
+      </c>
+      <c r="K29" t="s">
+        <v>319</v>
+      </c>
+      <c r="L29" t="s">
+        <v>320</v>
+      </c>
+      <c r="M29" t="s">
+        <v>321</v>
+      </c>
+      <c r="N29" t="s">
+        <v>322</v>
+      </c>
+      <c r="O29" t="s">
+        <v>323</v>
+      </c>
+      <c r="P29" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>326</v>
+      </c>
+      <c r="B30" t="s">
+        <v>327</v>
+      </c>
+      <c r="C30" t="s">
+        <v>328</v>
+      </c>
+      <c r="D30" t="s">
+        <v>329</v>
+      </c>
+      <c r="E30" t="s">
+        <v>330</v>
+      </c>
+      <c r="F30" t="s">
+        <v>331</v>
+      </c>
+      <c r="G30" t="s">
+        <v>332</v>
+      </c>
+      <c r="H30" t="s">
+        <v>333</v>
+      </c>
+      <c r="I30" t="s">
+        <v>334</v>
+      </c>
+      <c r="J30" t="s">
+        <v>335</v>
+      </c>
+      <c r="K30" t="s">
+        <v>336</v>
+      </c>
+      <c r="L30" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B31" t="s">
+        <v>348</v>
+      </c>
+      <c r="C31" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" t="s">
+        <v>340</v>
+      </c>
+      <c r="E31" t="s">
+        <v>341</v>
+      </c>
+      <c r="F31" t="s">
+        <v>342</v>
+      </c>
+      <c r="G31" t="s">
+        <v>343</v>
+      </c>
+      <c r="H31" t="s">
+        <v>344</v>
+      </c>
+      <c r="I31" t="s">
+        <v>241</v>
+      </c>
+      <c r="J31" t="s">
+        <v>345</v>
+      </c>
+      <c r="K31" t="s">
+        <v>346</v>
+      </c>
+      <c r="L31" t="s">
+        <v>347</v>
+      </c>
+      <c r="M31" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>358</v>
+      </c>
+      <c r="B32" t="s">
+        <v>349</v>
+      </c>
+      <c r="C32" t="s">
+        <v>350</v>
+      </c>
+      <c r="D32" t="s">
+        <v>351</v>
+      </c>
+      <c r="E32" t="s">
+        <v>352</v>
+      </c>
+      <c r="F32" t="s">
+        <v>353</v>
+      </c>
+      <c r="G32" t="s">
+        <v>354</v>
+      </c>
+      <c r="H32" t="s">
+        <v>355</v>
+      </c>
+      <c r="I32" t="s">
+        <v>356</v>
+      </c>
+      <c r="J32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>359</v>
+      </c>
+      <c r="B33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C33" t="s">
+        <v>361</v>
+      </c>
+      <c r="D33" t="s">
+        <v>362</v>
+      </c>
+      <c r="E33" t="s">
+        <v>363</v>
+      </c>
+      <c r="F33" t="s">
+        <v>364</v>
+      </c>
+      <c r="G33" t="s">
+        <v>365</v>
+      </c>
+      <c r="H33" t="s">
+        <v>366</v>
+      </c>
+      <c r="I33" t="s">
+        <v>367</v>
+      </c>
+      <c r="J33" t="s">
+        <v>368</v>
+      </c>
+      <c r="K33" t="s">
+        <v>369</v>
+      </c>
+      <c r="L33" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
